--- a/Java知识汇总.xlsx
+++ b/Java知识汇总.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BIO" sheetId="1" r:id="rId1"/>
     <sheet name="NIO" sheetId="3" r:id="rId2"/>
-    <sheet name="Log" sheetId="2" r:id="rId3"/>
-    <sheet name="依赖" sheetId="4" r:id="rId4"/>
+    <sheet name="多线程" sheetId="5" r:id="rId3"/>
+    <sheet name="Log" sheetId="2" r:id="rId4"/>
+    <sheet name="依赖" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="267">
   <si>
     <t xml:space="preserve">    FileInputStream fileInputStream = new FileInputStream(sPathFrom);</t>
   </si>
@@ -171,22 +172,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">## 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字节流：</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">## 1.1 </t>
     </r>
     <r>
@@ -441,22 +426,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">## 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符流</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">## 2.1 </t>
     </r>
     <r>
@@ -756,33 +725,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">## 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件类：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>File</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -794,33 +736,6 @@
         <charset val="134"/>
       </rPr>
       <t>文件增删除查改</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">## 5 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>属性集合类：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Properties</t>
     </r>
   </si>
   <si>
@@ -2304,6 +2219,15 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -2313,7 +2237,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t>parent</t>
+      <t>groupId</t>
     </r>
     <r>
       <rPr>
@@ -2324,10 +2248,14 @@
       </rPr>
       <t>&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.springframework.boot</t>
     </r>
     <r>
       <rPr>
@@ -2336,7 +2264,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;</t>
+      <t>&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -2346,110 +2274,6 @@
         <family val="3"/>
       </rPr>
       <t>groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>org.springframework.boot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE06C75"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE06C75"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>artifactId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>spring-boot-starter-parent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE06C75"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>artifactId</t>
     </r>
     <r>
       <rPr>
@@ -3438,13 +3262,2545 @@
   </si>
   <si>
     <t>注意：scope的import 属性只能在&lt;dependencyManagement&gt; 中使用，表示从其它的pom文件中导入dependency配置。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Lock lock = new ReentrantLock();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wait,notify,notifyAll,join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Lock lock = new ReentrantLock();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Condition c1 = lock.newCondition();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Condition c2 = lock.newCondition();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c1.await();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c2.signal();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    公平锁与非公平锁（常用）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    可重入锁也叫递归锁，注意加锁解锁一一对应。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    死锁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FutureTask&lt;Integer&gt; futureTask2 = new FutureTask&lt;&gt;(()-&gt;{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return  300;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new Thread(futureTask,"T1").start();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new Thread(futureTask2,"T1").start();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CyclicBarrier cyclicBarrier = new CyclicBarrier(num,()-&gt;{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReentrantReadWriteLock rwLock = new ReentrantReadWriteLock();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReentrantReadWriteLock.ReadLock rLock = rwLock.readLock();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReentrantReadWriteLock.WriteLock wLock  = rwLock.writeLock();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new ArrayBlockingQueue&lt;&gt;(3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ExecutorService poolExecute = new ThreadPoolExecutor(2, 5, 60L, TimeUnit.SECONDS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new ArrayBlockingQueue&lt;&gt;(3),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Executors.defaultThreadFactory(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new ThreadPoolExecutor.AbortPolicy()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class MyTask extends RecursiveTask&lt;Integer&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected Integer compute() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MyTask myTask = new MyTask(1,1000);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ForkJoinTask&lt;Integer&gt; forkJoinTask = forkJoinPool.submit(myTask);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CompletableFuture&lt;Void&gt; completableFuture = CompletableFuture.runAsync(()-&gt;{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("CompletableFuture.runAsync:Void");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    completableFuture.get();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CompletableFuture&lt;String&gt; completableFuture2 = CompletableFuture.supplyAsync(()-&gt;{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("CompletableFuture.supplyAsync:String");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return "supplyAsync.String";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicBoolean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicIntegerArray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicLongArray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicLongFieldUpdater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicMarkableReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicReferenceArray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AtomicReferenceFieldUpdater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DoubleAccumulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DoubleAdder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LongAccumulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new LongAdder().increment();</t>
+  </si>
+  <si>
+    <r>
+      <t>## 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JUC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程安全性：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    原子性（互斥访问）、可见性（一个线程对主内存修改其他线程能观察到）、有序性（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止指令重排）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Compare and Swap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    AbstractQueuedSynchronizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AQS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽象队列同步器，是一种锁机制。它维护了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>volatile int state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（代表共享资源）和一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FIFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程等待队列（多线程争用资源被阻塞时会进入此队列）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    原理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AQS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CLH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队列（虚拟的双向队列），用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修饰共享变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，线程通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去改变状态符，成功则获取锁成功，失败则进入等待队列，等待被唤醒。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    实现了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AQS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的锁有：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ReentrantLock(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独占</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Semaphore(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CountDownLatch(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CyclicBarrier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ReentrantReadWriteLock(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独占写共享读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AQS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的衍生物。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    进程和线程。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    新建状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(New)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，就绪状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Runnable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，运行状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Running)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，阻塞状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Blocked)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，死亡状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Dead)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当线程调用了自身的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleep()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法或其他线程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>join()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，进程让出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然后就会进入阻塞状态（该状态既停止当前线程，但并不释放所占有的资源即调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleep ()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数后，线程不会释放它的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁标志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    线程调用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yield()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，意思是放弃当前获得的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间片，回到就绪状态，这时与其他进程处于同等竞争状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有可能会接着又让这个进程进入运行状态。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    wait()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> notify() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法：当线程调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wait()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法后会进入等待队列（进入这个状态会释放所占有的所有资源，与阻塞状态不同），进入这个状态后，是不能自动唤醒的，必须依靠其他线程调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notify()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notifyAll()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法才能被唤醒（由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notify()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只是唤醒一个线程，但我们由不能确定具体唤醒的是哪一个线程，也许我们需要唤醒的线程不能够被唤醒，因此在实际使用时，一般都用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notifyAll()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        唤醒有所线程），线程被唤醒后会进入锁池，等待获取锁标记。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wait() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> notify() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法这一对却直接隶属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Object </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lock</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、线程间通信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚假唤醒：使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、线程间定制化通信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、集合的线程安全</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    List&lt;String&gt; list = new CopyOnWriteArrayList();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用，并发读，独立写</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Set&lt;String&gt; set = new CopyOnWriteArraySet();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无序，不重复。常用，并发读，独立写。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Map&lt;String,String&gt; map = new ConcurrentHashMap&lt;String,String&gt;();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、多线程锁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静态方法是以类为锁（只且只有一把）；不同实例对象是不同锁。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Callable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    FutureTask&lt;Integer&gt; futureTask = new FutureTask&lt;&gt;(new ThreadCallable());//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Callable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口的类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.out.println(String.valueOf(futureTask.get() + futureTask2.get()));//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后只需要汇总一次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JUC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强大的辅助类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    CountDownLatch countDownLatch = new CountDownLatch(6);//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    countDownLatch.countDown();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同线程中调用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    countDownLatch.await();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减数记数，等到计数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>才往后执行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环屏障：等所有任务完成后执行一个回调</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.out.println("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已集齐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颗龙珠，成功召唤神龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    cyclicBarrier.await();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同线程中调用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Semaphore semaphore = new Semaphore(3);//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号灯，固定的资源轮流用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    semaphore.acquire();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同线程中调用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    semaphore.release();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同线程中调用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ReentrantReadWriteLock</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读写锁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BlockingQueue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻塞队列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ThreadPool</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程池</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fork/Join</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支合并框架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ForkJoinPool forkJoinPool = new ForkJoinPool();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊的线程池</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Integer result = forkJoinTask.get();//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法得到计算结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CompletableFuture</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异步回调</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>## 14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atomic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### new AtomicInteger(0).incrementAndGet();//AtomicInteger</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AtomicLong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### new AtomicLong(0).getAndIncrement();//AtomicInteger</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AtomicLong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### AtomicIntegerFieldUpdater</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：用于更新某个实例对象中，被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>valatile</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修饰的非静态的类型为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的属性值！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### AtomicStampedReference</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：解决</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ABA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### LongAdder</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AtomicLong</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的区别在于高并发时前者将对单一变量的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作分散为对数组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cells</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中多个元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作，取值时进行求和；而在并发较低时仅对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>base</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作，与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AtomicLong</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类原理相同。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用示例：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">## 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符流</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">## 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节流：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">## 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件类：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>File</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">## 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性集合类：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Properties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>spring-boot-starter-parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE06C75"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3660,6 +6016,59 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF660E7A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3732,14 +6141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3810,6 +6216,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4112,10 +6543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4129,486 +6563,486 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="6" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="6" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="5" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="5" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="6" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="5" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="6" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="6" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="5" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="6" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="7"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="5" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="6" t="s">
+    <row r="94" spans="2:2">
+      <c r="B94" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="5" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4623,8 +7057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4635,6 +7069,570 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:A112"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="33"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="33"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="33"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="33"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="33"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="33"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="33"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -4649,359 +7647,359 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="9" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="16"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="18" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="14" t="s">
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5009,794 +8007,795 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
-      <c r="A1" s="19" t="s">
-        <v>102</v>
+      <c r="A1" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" thickBot="1">
       <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B3" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1">
+      <c r="B4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="F4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="21" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1">
+      <c r="B5" s="22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
-      <c r="B4" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="F5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="22" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1">
+      <c r="B6" s="21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="B5" s="23" t="s">
+      <c r="D6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="23" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
+      <c r="B7" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="23" t="s">
+      <c r="D7" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="B6" s="22" t="s">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
+      <c r="B8" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="D8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
-      <c r="B7" s="23" t="s">
+    <row r="9" spans="1:11" ht="15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="23.25">
+      <c r="B10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="B8" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="B9" s="24"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="23.25">
-      <c r="B10" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="15">
+      <c r="B12" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="B13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.25">
+      <c r="B14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="B15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="B16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:13" ht="23.25">
+      <c r="B17" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:13" ht="15">
+      <c r="B18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="B12" s="24" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" ht="15">
+      <c r="B19" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="B13" s="24"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.25">
-      <c r="B14" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="B15" s="24" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="2:13" ht="15">
+      <c r="B20" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="B16" s="24" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="2:13" ht="15">
+      <c r="B21" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:13" ht="23.25">
-      <c r="B17" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:13" ht="15">
-      <c r="B18" s="24" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="2:13" ht="15">
+      <c r="B22" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:13" ht="15">
-      <c r="B19" s="27" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:13" ht="15">
+      <c r="B23" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="2:13" ht="15">
-      <c r="B20" s="29" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="2:13" ht="15">
+      <c r="B24" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13" ht="15">
-      <c r="B21" s="29" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:13" ht="15">
+      <c r="B25" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="2:13" ht="15">
-      <c r="B22" s="29" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:13" ht="15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:13" ht="23.25">
+      <c r="B27" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:13" ht="15">
+      <c r="B28" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="2:13" ht="15">
-      <c r="B23" s="29" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:13" ht="15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:13" ht="23.25">
+      <c r="B30" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:13" ht="15">
+      <c r="B31" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="2:13" ht="15">
-      <c r="B24" s="29" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:13" ht="15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:10" ht="23.25">
+      <c r="B33" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="2:13" ht="15">
-      <c r="B25" s="27" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:10" ht="15">
+      <c r="B34" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="2:13" ht="15">
-      <c r="B26" s="24"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:13" ht="23.25">
-      <c r="B27" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:13" ht="15">
-      <c r="B28" s="24" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75">
+      <c r="B35" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:13" ht="15">
-      <c r="B29" s="24"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:13" ht="23.25">
-      <c r="B30" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="2:13" ht="15">
-      <c r="B31" s="24" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:10" ht="15">
+      <c r="B36" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:13" ht="15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" ht="23.25">
-      <c r="B33" s="25" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="2:10" ht="15">
+      <c r="B37" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="2:10" ht="15">
+      <c r="B38" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" ht="15">
-      <c r="B34" s="24" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="2:10" ht="15">
+      <c r="B39" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="2:10" ht="15">
+      <c r="B40" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75">
-      <c r="B35" s="30" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="2:10" ht="15">
+      <c r="B41" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" ht="15">
-      <c r="B36" s="24" t="s">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="2:10" ht="15">
+      <c r="B42" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" ht="15">
-      <c r="B37" s="31" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:10" ht="15">
+      <c r="B43" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="2:10" ht="15">
-      <c r="B38" s="33" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="15">
+      <c r="B44" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="2:10" ht="15">
-      <c r="B39" s="33" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="2:10" ht="15">
+      <c r="B45" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:10" ht="15">
-      <c r="B40" s="33" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="2:10" ht="15">
+      <c r="B46" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="2:10" ht="15">
-      <c r="B41" s="31" t="s">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="2:10" ht="15">
+      <c r="B47" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="2:10" ht="15">
-      <c r="B42" s="24" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="2:10" ht="15">
+      <c r="B48" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" ht="15">
-      <c r="B43" s="24" t="s">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="2:10" ht="15">
+      <c r="B49" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" ht="15">
-      <c r="B44" s="31" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="2:10" ht="15">
+      <c r="B50" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="2:10" ht="15">
-      <c r="B45" s="33" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="2:10" ht="15">
+      <c r="B51" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="2:10" ht="15">
-      <c r="B46" s="33" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="2:10" ht="15">
+      <c r="B52" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" ht="15">
-      <c r="B47" s="33" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="2:10" ht="15">
+      <c r="B53" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="2:10" ht="15">
-      <c r="B48" s="33" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="2:10" ht="15">
+      <c r="B54" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="2:10" ht="15">
-      <c r="B49" s="33" t="s">
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:10" ht="15">
+      <c r="B55" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="2:10" ht="15">
-      <c r="B50" s="33" t="s">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="2:10" ht="15">
+      <c r="B56" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="2:10" ht="15">
-      <c r="B51" s="33" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="2:10" ht="15">
+      <c r="B57" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="2:10" ht="15">
-      <c r="B52" s="33" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="2:10" ht="15">
+      <c r="B58" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="2:10" ht="15">
-      <c r="B53" s="33" t="s">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="2:10" ht="15">
+      <c r="B59" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="2:10" ht="15">
-      <c r="B54" s="31" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="2:10" ht="15">
+      <c r="B60" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="2:10" ht="15">
-      <c r="B55" s="33" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="2:10" ht="15">
+      <c r="B61" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="2:10" ht="15">
-      <c r="B56" s="31" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="2:10" ht="15">
+      <c r="B62" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="2:10" ht="15">
-      <c r="B57" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="2:10" ht="15">
-      <c r="B58" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="2:10" ht="15">
-      <c r="B59" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="2:10" ht="15">
-      <c r="B60" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="2:10" ht="15">
-      <c r="B61" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="2:10" ht="15">
-      <c r="B62" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Java知识汇总.xlsx
+++ b/Java知识汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BIO" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="多线程" sheetId="5" r:id="rId3"/>
     <sheet name="Log" sheetId="2" r:id="rId4"/>
     <sheet name="依赖" sheetId="4" r:id="rId5"/>
+    <sheet name="boot" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="296">
   <si>
     <t xml:space="preserve">    FileInputStream fileInputStream = new FileInputStream(sPathFrom);</t>
   </si>
@@ -5792,6 +5793,864 @@
         <family val="3"/>
       </rPr>
       <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactoryPostProcessor()</t>
+  </si>
+  <si>
+    <t>BeanPostProcessor()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（过时）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>InstantiationAwareBeanPostProcessorAdapter()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（过时）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>InstantiationAwareBeanPostProcessorAdapter.postProcessBeforeInstantiation()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（过时）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>InstantiationAwareBeanPostProcessorAdapter.postProcessPropertyValues(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person.setName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person----InitializingBean.afterPropertiesSet()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（过时）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>InstantiationAwareBeanPostProcessorAdapter.postProcessAfterInitialization()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的生命周期，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预留了很多的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给我们去扩展：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实例化之前有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanFactoryPostProcessor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实例化之后，初始化时，有相关的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Aware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口供我们去拿到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：环绕着初始化阶段，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanPostProcessor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的关键）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：在初始化阶段，有各种的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法供我们去自定义</t>
+    </r>
+  </si>
+  <si>
+    <t>Bean生命周期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MyBeanFactoryPostProcessor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanFactoryPostProcessor</t>
+    </r>
+  </si>
+  <si>
+    <t>#过时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MyBeanPostProcessor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanPostProcessor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MyInstantiationAwareBeanPostProcessor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">InstantiationAwareBeanPostProcessorAdapter </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanFactoryAware, BeanNameAware, InitializingBean, DisposableBean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ApplicationContext.getBean()--Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[address=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, name=llli, phone=110]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Person----DisposableBean.destroy()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Person----</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>myDestory()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>destroy-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性指定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Person----</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>myInit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>init-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性指定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    BeanFactoryPostProcessor.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>postProcessBeanFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Person----</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanNameAware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setBeanName()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Person----</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanFactoryAware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setBeanFactory()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BeanPostProcessor.postProcess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeforeInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BeanPostProcessor.postProcess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AfterInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>()</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5800,7 +6659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6069,6 +6928,89 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -6141,7 +7083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6240,6 +7182,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6548,7 +7518,7 @@
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
@@ -7075,7 +8045,7 @@
   </sheetPr>
   <dimension ref="A1:A112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -8011,7 +8981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -8798,4 +9768,402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="42"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>